--- a/Formatos Finales/formato_cancer_2021.xlsx
+++ b/Formatos Finales/formato_cancer_2021.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sopor\OneDrive\Escritorio\Practicas\MyQt5 Final\Archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sopor\OneDrive\Escritorio\Practicas\MyQt5 Final\Formatos Finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050" tabRatio="779" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="ENE" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="117">
   <si>
     <t>REPORTE DE ACTIVIDADES DE
  PREVENCION Y CONTROL DEL CANCER</t>
@@ -381,6 +381,15 @@
   </si>
   <si>
     <t>Periodo:                Trimestre IV - 2021</t>
+  </si>
+  <si>
+    <t>Periodo:                Semestre I - 2021</t>
+  </si>
+  <si>
+    <t>Periodo:                Semestre II - 2021</t>
+  </si>
+  <si>
+    <t>Periodo:                Anual - 2021</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB113"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -22694,7 +22703,7 @@
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="B5" s="28"/>
     </row>
@@ -26299,7 +26308,7 @@
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="B5" s="31"/>
     </row>
@@ -36046,7 +36055,7 @@
   </sheetPr>
   <dimension ref="A1:AB113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -49453,7 +49462,7 @@
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="B5" s="28"/>
     </row>
